--- a/src/main/resources/examples/加油站.xlsx
+++ b/src/main/resources/examples/加油站.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_126046DEDA24CEEB486B371332AA95153250BE00" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B2850F3-7328-42F5-A878-D5F4CCEB4B84}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_126046DEDA24CEEB486B371332AA95153250BE00" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{127F8870-3416-4DE8-B993-CA01CECCA946}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>区县代码</t>
   </si>
@@ -31,25 +31,16 @@
     <t>加油站地址</t>
   </si>
   <si>
-    <t>加油站类别</t>
-  </si>
-  <si>
     <t>中国石油山东路加油站</t>
   </si>
   <si>
     <t>山东路5号(近八一礼堂)</t>
   </si>
   <si>
-    <t>中国石油</t>
-  </si>
-  <si>
     <t>壳牌加油站(靖江路)</t>
   </si>
   <si>
     <t>靖江路18号(近卫国道)</t>
-  </si>
-  <si>
-    <t>壳牌</t>
   </si>
   <si>
     <t>壳牌十五经路加油站</t>
@@ -546,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -562,20 +553,20 @@
     <col min="7" max="7" width="13.3671875" customWidth="1"/>
     <col min="8" max="8" width="12.62890625" customWidth="1"/>
     <col min="9" max="9" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.1015625" customWidth="1"/>
-    <col min="12" max="12" width="16.47265625" customWidth="1"/>
-    <col min="14" max="14" width="15.1015625" customWidth="1"/>
-    <col min="15" max="15" width="18.3671875" customWidth="1"/>
-    <col min="16" max="16" width="13.734375" customWidth="1"/>
-    <col min="17" max="17" width="12.47265625" customWidth="1"/>
+    <col min="10" max="10" width="18.1015625" customWidth="1"/>
+    <col min="11" max="11" width="16.47265625" customWidth="1"/>
+    <col min="13" max="13" width="15.1015625" customWidth="1"/>
+    <col min="14" max="14" width="18.3671875" customWidth="1"/>
+    <col min="15" max="15" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -584,51 +575,48 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>2013</v>
@@ -637,13 +625,13 @@
         <v>650100</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
       <c r="G2">
         <v>117.200273999999</v>
@@ -652,13 +640,13 @@
         <v>39.133594000000002</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>1818</v>
       </c>
       <c r="L2">
         <v>1818</v>
@@ -678,13 +666,10 @@
       <c r="Q2">
         <v>1818</v>
       </c>
-      <c r="R2">
-        <v>1818</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2013</v>
@@ -693,10 +678,10 @@
         <v>650100</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>117.25031300000001</v>
@@ -705,39 +690,36 @@
         <v>39.151164999999899</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>807</v>
+      </c>
+      <c r="L3">
+        <v>807</v>
+      </c>
+      <c r="M3">
+        <v>807</v>
+      </c>
+      <c r="N3">
+        <v>807</v>
+      </c>
+      <c r="O3">
+        <v>807</v>
+      </c>
+      <c r="P3">
+        <v>807</v>
+      </c>
+      <c r="Q3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>15</v>
-      </c>
-      <c r="L3">
-        <v>807</v>
-      </c>
-      <c r="M3">
-        <v>807</v>
-      </c>
-      <c r="N3">
-        <v>807</v>
-      </c>
-      <c r="O3">
-        <v>807</v>
-      </c>
-      <c r="P3">
-        <v>807</v>
-      </c>
-      <c r="Q3">
-        <v>807</v>
-      </c>
-      <c r="R3">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>18</v>
       </c>
       <c r="B4">
         <v>2013</v>
@@ -746,10 +728,10 @@
         <v>650102</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>117.244742</v>
@@ -758,13 +740,13 @@
         <v>39.123247999999897</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>807</v>
       </c>
       <c r="L4">
         <v>807</v>
@@ -782,16 +764,13 @@
         <v>807</v>
       </c>
       <c r="Q4">
-        <v>807</v>
-      </c>
-      <c r="R4">
         <v>807</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J7 J8:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"汽油,柴油"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/examples/加油站.xlsx
+++ b/src/main/resources/examples/加油站.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_126046DEDA24CEEB486B371332AA95153250BE00" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{127F8870-3416-4DE8-B993-CA01CECCA946}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1195A4-B42B-41D4-A4CA-7CB8543F542D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="1140" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>区县代码</t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>汽油</t>
-  </si>
-  <si>
-    <t>1209321002</t>
-  </si>
-  <si>
-    <t>1209321101</t>
-  </si>
-  <si>
-    <t>1209321102</t>
   </si>
   <si>
     <t>储罐容量（m3）</t>
@@ -539,31 +530,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.1015625" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="4" max="4" width="35.26171875" customWidth="1"/>
-    <col min="5" max="5" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.734375" customWidth="1"/>
-    <col min="7" max="7" width="13.3671875" customWidth="1"/>
-    <col min="8" max="8" width="12.62890625" customWidth="1"/>
-    <col min="9" max="9" width="11.5234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1015625" customWidth="1"/>
-    <col min="11" max="11" width="16.47265625" customWidth="1"/>
-    <col min="13" max="13" width="15.1015625" customWidth="1"/>
-    <col min="14" max="14" width="18.3671875" customWidth="1"/>
-    <col min="15" max="15" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.47265625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="35.25" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -575,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -596,39 +587,39 @@
         <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>13</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1513300000</v>
       </c>
       <c r="B2">
         <v>2013</v>
       </c>
       <c r="C2">
-        <v>650100</v>
+        <v>210101</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -640,7 +631,7 @@
         <v>39.133594000000002</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -667,19 +658,22 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1513300010</v>
       </c>
       <c r="B3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C3">
-        <v>650100</v>
+        <v>210102</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
@@ -690,7 +684,7 @@
         <v>39.151164999999899</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -717,19 +711,22 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1513300020</v>
       </c>
       <c r="B4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C4">
-        <v>650102</v>
+        <v>210103</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -740,7 +737,7 @@
         <v>39.123247999999897</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -770,7 +767,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J7 J8:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"汽油,柴油"</formula1>
     </dataValidation>
   </dataValidations>
